--- a/public/upload/Choreographies.xlsx
+++ b/public/upload/Choreographies.xlsx
@@ -37,67 +37,67 @@
     <x:t>Time</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-09-14 11:29:32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-03-21 12:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>coursess 1fuck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
+    <x:t>2018-04-19 11:39:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-04-23 12:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>askjdajd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.1</x:t>
   </x:si>
   <x:si>
     <x:t>50</x:t>
   </x:si>
   <x:si>
+    <x:t>askwefkle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wefwef</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>Kain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15900496503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-04-19 11:39:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-04-19 11:20:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-04-20 12:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bala bala</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
     <x:t>location</x:t>
   </x:si>
   <x:si>
-    <x:t>7/8/9 12 2018</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>Kain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15900496503</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-04-02 05:07:22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-14 12:58:13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-04-25 12:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>coursess 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fuckaohdoh</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>2019203</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/public/upload/Choreographies.xlsx
+++ b/public/upload/Choreographies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <x:si>
     <x:t>CreateTime</x:t>
   </x:si>
@@ -37,6 +37,24 @@
     <x:t>Time</x:t>
   </x:si>
   <x:si>
+    <x:t>First Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Last Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Member Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Course Fee Paid (Yes/No)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Course Fee Paid（time）</x:t>
+  </x:si>
+  <x:si>
     <x:t>2018-04-19 11:39:12</x:t>
   </x:si>
   <x:si>
@@ -58,12 +76,6 @@
     <x:t>wefwef</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
     <x:t>Kain</x:t>
   </x:si>
   <x:si>
@@ -73,16 +85,19 @@
     <x:t>15900496503</x:t>
   </x:si>
   <x:si>
+    <x:t>MBI Elite/MBI Master</x:t>
+  </x:si>
+  <x:si>
     <x:t>payment</x:t>
   </x:si>
   <x:si>
-    <x:t>2018-04-19 11:39:22</x:t>
+    <x:t>2018-04-20 01:19:47</x:t>
   </x:si>
   <x:si>
     <x:t>2018-04-19 11:20:47</x:t>
   </x:si>
   <x:si>
-    <x:t>2018-04-20 12:00:00</x:t>
+    <x:t>2018-04-21 12:00:00</x:t>
   </x:si>
   <x:si>
     <x:t>bala bala</x:t>
@@ -98,6 +113,24 @@
   </x:si>
   <x:si>
     <x:t>2019203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15900496503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MBI Elite/MBI Master</x:t>
+  </x:si>
+  <x:si>
+    <x:t>payment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-04-20 01:29:59</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -465,9 +498,15 @@
     <col customWidth="1" width="10" max="5" min="5"/>
     <col customWidth="1" width="20" max="6" min="6"/>
     <col customWidth="1" width="20" max="7" min="7"/>
+    <col customWidth="1" width="20" max="8" min="8"/>
+    <col customWidth="1" width="20" max="9" min="9"/>
+    <col customWidth="1" width="20" max="10" min="10"/>
+    <col customWidth="1" width="20" max="11" min="11"/>
+    <col customWidth="1" width="20" max="12" min="12"/>
+    <col customWidth="1" width="20" max="13" min="13"/>
   </cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:13">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -489,74 +528,105 @@
       <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:13">
       <x:c r="A2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7">
+    <x:row r="3" spans="1:13">
       <x:c r="A3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
-      <x:c r="A4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
